--- a/0咪咕音乐/咪咕音乐v3100爱唱优化二期/咪咕音乐 Jadeite_USS_music-V3.10.0版本用例.xlsx
+++ b/0咪咕音乐/咪咕音乐v3100爱唱优化二期/咪咕音乐 Jadeite_USS_music-V3.10.0版本用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="682">
   <si>
     <t>*功能模块</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>1、音乐搜索系统正常、solr正常、有全量数据</t>
+  </si>
+  <si>
+    <t>胡夏</t>
   </si>
   <si>
     <t>1、爱唱演唱会接口键入搜索词
@@ -145,6 +148,9 @@
     <t>mgyy-004</t>
   </si>
   <si>
+    <t>hx</t>
+  </si>
+  <si>
     <t>1、爱唱演唱会接口键入演唱会简拼前缀
 2、查看返回报文</t>
   </si>
@@ -155,6 +161,9 @@
     <t>mgyy-005</t>
   </si>
   <si>
+    <t>rm</t>
+  </si>
+  <si>
     <t>1、爱唱演唱会接口键入英文演唱会简拼前缀搜索
 2、查看返回报文</t>
   </si>
@@ -165,6 +174,9 @@
     <t>mgyy-006</t>
   </si>
   <si>
+    <t>huxia</t>
+  </si>
+  <si>
     <t>1、爱唱演唱会接口键入演唱会全拼前缀
 2、查看返回报文</t>
   </si>
@@ -173,6 +185,9 @@
   </si>
   <si>
     <t>mgyy-007</t>
+  </si>
+  <si>
+    <t>real me</t>
   </si>
   <si>
     <t>1、爱唱演唱会接口键入英文演唱会全拼前缀
@@ -255,6 +270,9 @@
   </si>
   <si>
     <t>mgyy-016</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
   <si>
     <t>1、接口请求成功，返回数据中有目标演唱会信息，无中后缀匹配演唱会</t>
@@ -1885,8 +1903,7 @@
     <t>mgyy-152</t>
   </si>
   <si>
-    <t>S.H.E
-T.R.Y</t>
+    <t>S.H.E</t>
   </si>
   <si>
     <t>1、接口请求成功，返回结果中有目标数据，热门组召回时要求必须是带该符号精确匹配</t>
@@ -1898,9 +1915,7 @@
     <t>mgyy-153</t>
   </si>
   <si>
-    <t>t.t.l
-d.i.y
-l.o.v.e</t>
+    <t>S.N.G/S.E.X./D.O.P.E.</t>
   </si>
   <si>
     <t>带符号的为专辑，且hotlevel&gt;0或者hot&gt;20万</t>
@@ -1910,7 +1925,9 @@
   </si>
   <si>
     <t>《l.o.v.e.》
-S.H.E</t>
+无滤镜 (feat. 藤原浩)
+和自己对话 From M.E. To Myself
+S.H.E/J.Fla</t>
   </si>
   <si>
     <t>1、专辑接口搜索目标词
@@ -1923,7 +1940,9 @@
     <t>mgyy-155</t>
   </si>
   <si>
-    <t>S.H.E/s.o.s./歌.颂/B.Y.S.</t>
+    <t>S.H.E
+s.o.s./歌.颂/B.Y.S.
+First Love (Feat.EB)</t>
   </si>
   <si>
     <t>1、mv接口搜索目标词
@@ -2115,9 +2134,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -2196,17 +2215,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2218,7 +2231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2226,14 +2239,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2255,38 +2275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2326,7 +2316,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2335,6 +2325,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2373,25 +2392,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,7 +2464,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,139 +2566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,8 +2604,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2610,22 +2644,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2647,8 +2666,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2671,11 +2692,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2687,10 +2706,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2699,16 +2718,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2720,116 +2739,116 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2884,9 +2903,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2900,9 +2916,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3285,21 +3298,21 @@
   <sheetPr/>
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B166" workbookViewId="0">
-      <selection activeCell="M171" sqref="M171"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="C180" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.4416666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="32.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.1833333333333" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="6" customWidth="1"/>
     <col min="8" max="8" width="30.775" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.4583333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="36.0916666666667" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.625" style="1" customWidth="1"/>
@@ -3368,9 +3381,9 @@
       <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="11" t="s">
@@ -3481,22 +3494,24 @@
       <c r="H6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="J6" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="13"/>
-      <c r="M6" s="23" t="s">
-        <v>29</v>
+      <c r="M6" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A7" s="15"/>
@@ -3504,33 +3519,33 @@
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="13"/>
-      <c r="M7" s="23" t="s">
-        <v>29</v>
+      <c r="M7" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="45" spans="1:18">
       <c r="A8" s="15"/>
@@ -3538,40 +3553,40 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="M8" s="23" t="s">
-        <v>29</v>
+      <c r="M8" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -3595,10 +3610,10 @@
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>25</v>
@@ -3606,22 +3621,24 @@
       <c r="H10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="J10" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" s="13"/>
-      <c r="M10" s="23" t="s">
-        <v>29</v>
+      <c r="M10" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A11" s="13"/>
@@ -3629,33 +3646,35 @@
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="J11" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" s="13"/>
-      <c r="M11" s="23" t="s">
-        <v>29</v>
+      <c r="M11" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A12" s="13"/>
@@ -3663,10 +3682,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>25</v>
@@ -3674,22 +3693,24 @@
       <c r="H12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="J12" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12" s="13"/>
-      <c r="M12" s="23" t="s">
-        <v>29</v>
+      <c r="M12" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A13" s="13"/>
@@ -3697,33 +3718,35 @@
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="J13" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L13" s="13"/>
-      <c r="M13" s="23" t="s">
-        <v>29</v>
+      <c r="M13" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A14" s="13"/>
@@ -3731,33 +3754,35 @@
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="J14" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L14" s="13"/>
-      <c r="M14" s="23" t="s">
-        <v>29</v>
+      <c r="M14" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:18">
       <c r="A15" s="13"/>
@@ -3765,35 +3790,35 @@
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L15" s="13"/>
-      <c r="M15" s="23" t="s">
-        <v>29</v>
+      <c r="M15" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A16" s="13"/>
@@ -3801,10 +3826,10 @@
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>25</v>
@@ -3812,22 +3837,24 @@
       <c r="H16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="J16" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L16" s="13"/>
-      <c r="M16" s="23" t="s">
-        <v>29</v>
+      <c r="M16" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A17" s="13"/>
@@ -3835,33 +3862,35 @@
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="J17" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L17" s="13"/>
-      <c r="M17" s="23" t="s">
-        <v>29</v>
+      <c r="M17" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="33" customHeight="1" spans="1:18">
       <c r="A18" s="13"/>
@@ -3869,67 +3898,69 @@
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="18" t="s">
-        <v>68</v>
+      <c r="E19" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L19" s="13"/>
-      <c r="M19" s="23"/>
+      <c r="M19" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -3937,33 +3968,35 @@
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="J20" s="16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L20" s="13"/>
-      <c r="M20" s="23" t="s">
-        <v>29</v>
+      <c r="M20" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A21" s="16"/>
@@ -3971,40 +4004,40 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L21" s="13"/>
-      <c r="M21" s="23" t="s">
-        <v>29</v>
+      <c r="M21" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -4028,33 +4061,33 @@
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L23" s="13"/>
-      <c r="M23" s="23" t="s">
-        <v>29</v>
+      <c r="M23" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A24" s="13"/>
@@ -4062,33 +4095,33 @@
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L24" s="13"/>
-      <c r="M24" s="23" t="s">
-        <v>29</v>
+      <c r="M24" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A25" s="13"/>
@@ -4096,33 +4129,33 @@
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L25" s="13"/>
-      <c r="M25" s="23" t="s">
-        <v>29</v>
+      <c r="M25" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A26" s="15"/>
@@ -4130,31 +4163,33 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L26" s="13"/>
-      <c r="M26" s="24"/>
+      <c r="M26" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A27" s="15"/>
@@ -4162,31 +4197,33 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L27" s="13"/>
-      <c r="M27" s="24"/>
+      <c r="M27" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A28" s="15"/>
@@ -4194,38 +4231,40 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L28" s="13"/>
-      <c r="M28" s="24"/>
+      <c r="M28" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -4249,10 +4288,10 @@
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>25</v>
@@ -4262,20 +4301,20 @@
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L30" s="13"/>
-      <c r="M30" s="23" t="s">
-        <v>29</v>
+      <c r="M30" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A31" s="13"/>
@@ -4283,33 +4322,33 @@
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L31" s="13"/>
-      <c r="M31" s="23" t="s">
-        <v>29</v>
+      <c r="M31" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A32" s="13"/>
@@ -4317,33 +4356,33 @@
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L32" s="13"/>
-      <c r="M32" s="23" t="s">
-        <v>29</v>
+      <c r="M32" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A33" s="15"/>
@@ -4351,10 +4390,10 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>25</v>
@@ -4364,18 +4403,20 @@
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L33" s="13"/>
-      <c r="M33" s="23"/>
+      <c r="M33" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A34" s="15"/>
@@ -4383,31 +4424,33 @@
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L34" s="13"/>
-      <c r="M34" s="23"/>
+      <c r="M34" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A35" s="15"/>
@@ -4415,37 +4458,39 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L35" s="13"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A36" s="12"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -4469,7 +4514,7 @@
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -4493,10 +4538,10 @@
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>25</v>
@@ -4505,23 +4550,23 @@
         <v>26</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L38" s="13"/>
-      <c r="M38" s="23" t="s">
-        <v>29</v>
+      <c r="M38" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A39" s="15"/>
@@ -4529,35 +4574,35 @@
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L39" s="13"/>
-      <c r="M39" s="23" t="s">
-        <v>29</v>
+      <c r="M39" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A40" s="15"/>
@@ -4565,35 +4610,35 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L40" s="13"/>
-      <c r="M40" s="23" t="s">
-        <v>29</v>
+      <c r="M40" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A41" s="15"/>
@@ -4601,35 +4646,35 @@
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L41" s="13"/>
-      <c r="M41" s="23" t="s">
-        <v>29</v>
+      <c r="M41" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A42" s="15"/>
@@ -4637,35 +4682,35 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L42" s="13"/>
-      <c r="M42" s="23" t="s">
-        <v>29</v>
+      <c r="M42" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A43" s="15"/>
@@ -4673,10 +4718,10 @@
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>25</v>
@@ -4685,23 +4730,23 @@
         <v>26</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L43" s="13"/>
-      <c r="M43" s="23" t="s">
-        <v>29</v>
+      <c r="M43" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A44" s="15"/>
@@ -4709,10 +4754,10 @@
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>25</v>
@@ -4721,367 +4766,367 @@
         <v>26</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L44" s="13"/>
-      <c r="M44" s="23" t="s">
-        <v>29</v>
+      <c r="M44" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
     </row>
     <row r="45" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A45" s="20"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
+        <v>154</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
     </row>
     <row r="46" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L46" s="13"/>
-      <c r="M46" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
+      <c r="M46" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
     </row>
     <row r="47" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>32</v>
+        <v>160</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L47" s="13"/>
-      <c r="M47" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
+      <c r="M47" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
     </row>
     <row r="48" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>32</v>
+        <v>164</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L48" s="13"/>
-      <c r="M48" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
+      <c r="M48" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
     </row>
     <row r="49" s="3" customFormat="1" ht="45" spans="1:27">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>32</v>
+        <v>168</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L49" s="13"/>
-      <c r="M49" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
+      <c r="M49" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
     </row>
     <row r="50" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L50" s="13"/>
-      <c r="M50" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
+      <c r="M50" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
     </row>
     <row r="51" s="3" customFormat="1" ht="45" spans="1:27">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L51" s="13"/>
-      <c r="M51" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
+      <c r="M51" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
     </row>
     <row r="52" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A52" s="20"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
     </row>
     <row r="53" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="13" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G53" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H53" s="16" t="s">
@@ -5089,40 +5134,40 @@
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L53" s="13"/>
-      <c r="M53" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
+      <c r="M53" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
@@ -5141,11 +5186,11 @@
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="18"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -5161,80 +5206,80 @@
     </row>
     <row r="56" customHeight="1" spans="5:12">
       <c r="E56" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="5:12">
       <c r="E57" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F57" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="5:12">
       <c r="E58" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="2:13">
@@ -5242,28 +5287,28 @@
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M59" s="4"/>
     </row>
@@ -5272,28 +5317,28 @@
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M60" s="4"/>
     </row>
@@ -5302,28 +5347,28 @@
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M61" s="4"/>
     </row>
@@ -5332,28 +5377,28 @@
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M62" s="4"/>
     </row>
@@ -5362,28 +5407,28 @@
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M63" s="4"/>
     </row>
@@ -5392,28 +5437,28 @@
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M64" s="4"/>
     </row>
@@ -5422,28 +5467,28 @@
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M65" s="4"/>
     </row>
@@ -5452,11 +5497,11 @@
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
@@ -5475,25 +5520,25 @@
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M67" s="4"/>
     </row>
@@ -5502,25 +5547,25 @@
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M68" s="4"/>
     </row>
@@ -5529,25 +5574,25 @@
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M69" s="4"/>
     </row>
@@ -5556,25 +5601,25 @@
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M70" s="4"/>
     </row>
@@ -5583,25 +5628,25 @@
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M71" s="4"/>
     </row>
@@ -5610,25 +5655,25 @@
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M72" s="4"/>
     </row>
@@ -5637,25 +5682,25 @@
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M73" s="4"/>
     </row>
@@ -5663,12 +5708,12 @@
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -5687,28 +5732,28 @@
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M75" s="4"/>
     </row>
@@ -5717,28 +5762,28 @@
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M76" s="4"/>
     </row>
@@ -5747,28 +5792,28 @@
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M77" s="4"/>
     </row>
@@ -5777,28 +5822,28 @@
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M78" s="4"/>
     </row>
@@ -5807,28 +5852,28 @@
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M79" s="4"/>
     </row>
@@ -5837,28 +5882,28 @@
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M80" s="4"/>
     </row>
@@ -5867,28 +5912,28 @@
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M81" s="4"/>
     </row>
@@ -5897,28 +5942,28 @@
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M82" s="4"/>
     </row>
@@ -5927,28 +5972,28 @@
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M83" s="4"/>
     </row>
@@ -5957,28 +6002,28 @@
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M84" s="4"/>
     </row>
@@ -5987,28 +6032,28 @@
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M85" s="4"/>
     </row>
@@ -6017,11 +6062,11 @@
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E86" s="12"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
@@ -6040,25 +6085,25 @@
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M87" s="4"/>
     </row>
@@ -6067,25 +6112,25 @@
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M88" s="4"/>
     </row>
@@ -6094,25 +6139,25 @@
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M89" s="4"/>
     </row>
@@ -6121,25 +6166,25 @@
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M90" s="4"/>
     </row>
@@ -6148,25 +6193,25 @@
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M91" s="4"/>
     </row>
@@ -6175,25 +6220,25 @@
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M92" s="4"/>
     </row>
@@ -6202,25 +6247,25 @@
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M93" s="4"/>
     </row>
@@ -6229,11 +6274,11 @@
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
       <c r="D94" s="11" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E94" s="12"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -6252,28 +6297,28 @@
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M95" s="4"/>
     </row>
@@ -6282,41 +6327,41 @@
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M96" s="4"/>
     </row>
     <row r="97" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A97" s="12"/>
       <c r="B97" s="11" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
@@ -6334,12 +6379,12 @@
       <c r="A98" s="12"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
@@ -6358,11 +6403,11 @@
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E99" s="12"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
@@ -6381,28 +6426,28 @@
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M100" s="4"/>
     </row>
@@ -6411,28 +6456,28 @@
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M101" s="4"/>
     </row>
@@ -6441,28 +6486,28 @@
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F102" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="K102" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M102" s="4"/>
     </row>
@@ -6471,28 +6516,28 @@
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="L103" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M103" s="4"/>
     </row>
@@ -6501,11 +6546,11 @@
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E104" s="12"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
@@ -6524,28 +6569,28 @@
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M105" s="4"/>
     </row>
@@ -6554,28 +6599,28 @@
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M106" s="4"/>
     </row>
@@ -6583,12 +6628,12 @@
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="11" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="12"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
@@ -6607,11 +6652,11 @@
       <c r="B108" s="12"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E108" s="12"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
@@ -6630,28 +6675,28 @@
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M109" s="4"/>
     </row>
@@ -6660,28 +6705,28 @@
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M110" s="4"/>
     </row>
@@ -6690,28 +6735,28 @@
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F111" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="K111" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M111" s="4"/>
     </row>
@@ -6720,28 +6765,28 @@
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M112" s="4"/>
     </row>
@@ -6750,28 +6795,28 @@
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
       <c r="E113" s="4" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M113" s="4"/>
     </row>
@@ -6780,11 +6825,11 @@
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E114" s="12"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
@@ -6803,28 +6848,28 @@
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M115" s="4"/>
     </row>
@@ -6833,28 +6878,28 @@
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M116" s="4"/>
     </row>
@@ -6863,28 +6908,28 @@
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="4" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F117" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G117" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="K117" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M117" s="4"/>
     </row>
@@ -6893,28 +6938,28 @@
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M118" s="4"/>
     </row>
@@ -6923,28 +6968,28 @@
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="4" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M119" s="4"/>
     </row>
@@ -6953,11 +6998,11 @@
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E120" s="12"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
@@ -6976,28 +7021,28 @@
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M121" s="4"/>
     </row>
@@ -7006,28 +7051,28 @@
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M122" s="4"/>
     </row>
@@ -7036,28 +7081,28 @@
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="4" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F123" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G123" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="K123" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M123" s="4"/>
     </row>
@@ -7066,28 +7111,28 @@
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M124" s="4"/>
     </row>
@@ -7096,28 +7141,28 @@
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="4" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M125" s="4"/>
     </row>
@@ -7126,11 +7171,11 @@
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E126" s="12"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
@@ -7149,25 +7194,25 @@
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
       <c r="E127" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M127" s="4"/>
     </row>
@@ -7176,28 +7221,28 @@
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
       <c r="E128" s="4" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M128" s="4"/>
     </row>
@@ -7206,25 +7251,25 @@
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F129" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="K129" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M129" s="4"/>
     </row>
@@ -7232,12 +7277,12 @@
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="11" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="12"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
@@ -7256,11 +7301,11 @@
       <c r="B131" s="12"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E131" s="12"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
@@ -7279,28 +7324,28 @@
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="4" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M132" s="4"/>
     </row>
@@ -7309,28 +7354,28 @@
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="4" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M133" s="4"/>
     </row>
@@ -7339,11 +7384,11 @@
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E134" s="12"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
@@ -7362,28 +7407,28 @@
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
       <c r="E135" s="4" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M135" s="4"/>
     </row>
@@ -7392,28 +7437,28 @@
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M136" s="4"/>
     </row>
@@ -7422,28 +7467,28 @@
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="4" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M137" s="4"/>
     </row>
@@ -7452,28 +7497,28 @@
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="4" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M138" s="4"/>
     </row>
@@ -7482,28 +7527,28 @@
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F139" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="I139" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M139" s="4"/>
     </row>
@@ -7512,28 +7557,28 @@
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="4" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M140" s="4"/>
     </row>
@@ -7542,28 +7587,28 @@
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="4" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M141" s="4"/>
     </row>
@@ -7572,28 +7617,28 @@
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="4" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M142" s="4"/>
     </row>
@@ -7602,28 +7647,28 @@
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="4" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M143" s="4"/>
     </row>
@@ -7631,29 +7676,29 @@
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="29" t="s">
-        <v>478</v>
+      <c r="E144" s="27" t="s">
+        <v>484</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="G144" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H144" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="I144" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="J144" s="31" t="s">
-        <v>429</v>
-      </c>
-      <c r="K144" s="31" t="s">
-        <v>482</v>
+        <v>485</v>
+      </c>
+      <c r="G144" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="I144" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="J144" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K144" s="29" t="s">
+        <v>488</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M144" s="4"/>
     </row>
@@ -7661,29 +7706,29 @@
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="29" t="s">
-        <v>483</v>
+      <c r="E145" s="27" t="s">
+        <v>489</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="G145" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H145" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="I145" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="J145" s="31" t="s">
-        <v>429</v>
-      </c>
-      <c r="K145" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H145" s="29" t="s">
         <v>486</v>
       </c>
+      <c r="I145" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="J145" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K145" s="29" t="s">
+        <v>492</v>
+      </c>
       <c r="L145" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M145" s="4"/>
     </row>
@@ -7691,28 +7736,28 @@
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="11" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M146" s="4"/>
     </row>
@@ -7721,25 +7766,25 @@
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
       <c r="E147" s="4" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M147" s="4"/>
     </row>
@@ -7747,12 +7792,12 @@
       <c r="A148" s="12"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="12"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
@@ -7771,11 +7816,11 @@
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E149" s="12"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
       <c r="J149" s="12"/>
@@ -7794,25 +7839,25 @@
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M150" s="4"/>
     </row>
@@ -7821,25 +7866,25 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M151" s="4"/>
     </row>
@@ -7848,25 +7893,25 @@
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M152" s="4"/>
     </row>
@@ -7875,25 +7920,25 @@
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="4" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M153" s="4"/>
     </row>
@@ -7902,25 +7947,25 @@
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="4" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M154" s="4"/>
     </row>
@@ -7929,11 +7974,11 @@
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E155" s="12"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
@@ -7952,25 +7997,25 @@
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="4" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M156" s="4"/>
     </row>
@@ -7979,25 +8024,25 @@
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="4" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M157" s="4"/>
     </row>
@@ -8006,25 +8051,25 @@
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="4" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M158" s="4"/>
     </row>
@@ -8033,25 +8078,25 @@
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
       <c r="E159" s="4" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M159" s="4"/>
     </row>
@@ -8060,11 +8105,11 @@
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="E160" s="12"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
@@ -8083,25 +8128,25 @@
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="4" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M161" s="4"/>
     </row>
@@ -8110,25 +8155,25 @@
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="4" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M162" s="4"/>
     </row>
@@ -8137,25 +8182,25 @@
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="4" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M163" s="4"/>
     </row>
@@ -8164,1479 +8209,1479 @@
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="4" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M164" s="4"/>
     </row>
     <row r="165" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A165" s="20"/>
+      <c r="A165" s="19"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D165" s="11"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="20"/>
-      <c r="J165" s="20"/>
-      <c r="K165" s="20"/>
-      <c r="L165" s="20"/>
-      <c r="M165" s="25"/>
-      <c r="N165" s="20"/>
-      <c r="O165" s="20"/>
-      <c r="P165" s="20"/>
-      <c r="Q165" s="20"/>
-      <c r="R165" s="20"/>
-      <c r="S165" s="20"/>
-      <c r="T165" s="21"/>
-      <c r="U165" s="21"/>
-      <c r="V165" s="21"/>
-      <c r="W165" s="21"/>
-      <c r="X165" s="21"/>
-      <c r="Y165" s="21"/>
-      <c r="Z165" s="21"/>
-      <c r="AA165" s="21"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="23"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+      <c r="V165" s="20"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
     </row>
     <row r="166" s="3" customFormat="1" ht="66" customHeight="1" spans="1:27">
-      <c r="A166" s="20"/>
+      <c r="A166" s="19"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="20"/>
-      <c r="J166" s="20"/>
-      <c r="K166" s="20"/>
-      <c r="L166" s="20"/>
-      <c r="M166" s="25"/>
-      <c r="N166" s="20"/>
-      <c r="O166" s="20"/>
-      <c r="P166" s="20"/>
-      <c r="Q166" s="20"/>
-      <c r="R166" s="20"/>
-      <c r="S166" s="20"/>
-      <c r="T166" s="21"/>
-      <c r="U166" s="21"/>
-      <c r="V166" s="21"/>
-      <c r="W166" s="21"/>
-      <c r="X166" s="21"/>
-      <c r="Y166" s="21"/>
-      <c r="Z166" s="21"/>
-      <c r="AA166" s="21"/>
-    </row>
-    <row r="167" s="3" customFormat="1" ht="90" spans="1:27">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="21"/>
+        <v>562</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="23"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="20"/>
+      <c r="U166" s="20"/>
+      <c r="V166" s="20"/>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+      <c r="Z166" s="20"/>
+      <c r="AA166" s="20"/>
+    </row>
+    <row r="167" s="3" customFormat="1" ht="195" spans="1:27">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
       <c r="E167" s="13" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="G167" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="G167" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H167" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="J167" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K167" s="13" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L167" s="13"/>
-      <c r="M167" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N167" s="21"/>
-      <c r="O167" s="21"/>
-      <c r="P167" s="21"/>
-      <c r="Q167" s="21"/>
-      <c r="R167" s="21"/>
-      <c r="S167" s="21"/>
-      <c r="T167" s="21"/>
-      <c r="U167" s="21"/>
-      <c r="V167" s="21"/>
-      <c r="W167" s="21"/>
-      <c r="X167" s="21"/>
-      <c r="Y167" s="21"/>
-      <c r="Z167" s="21"/>
-      <c r="AA167" s="21"/>
+      <c r="M167" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N167" s="20"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="20"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="20"/>
+      <c r="U167" s="20"/>
+      <c r="V167" s="20"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
+      <c r="Z167" s="20"/>
+      <c r="AA167" s="20"/>
     </row>
     <row r="168" s="3" customFormat="1" ht="30" spans="1:27">
-      <c r="A168" s="21"/>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="21"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
       <c r="E168" s="13" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="G168" s="22" t="s">
-        <v>32</v>
+        <v>569</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H168" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="J168" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K168" s="13" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="L168" s="13"/>
-      <c r="M168" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N168" s="21"/>
-      <c r="O168" s="21"/>
-      <c r="P168" s="21"/>
-      <c r="Q168" s="21"/>
-      <c r="R168" s="21"/>
-      <c r="S168" s="21"/>
-      <c r="T168" s="21"/>
-      <c r="U168" s="21"/>
-      <c r="V168" s="21"/>
-      <c r="W168" s="21"/>
-      <c r="X168" s="21"/>
-      <c r="Y168" s="21"/>
-      <c r="Z168" s="21"/>
-      <c r="AA168" s="21"/>
+      <c r="M168" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N168" s="20"/>
+      <c r="O168" s="20"/>
+      <c r="P168" s="20"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
     </row>
     <row r="169" s="3" customFormat="1" ht="30" spans="1:27">
-      <c r="A169" s="21"/>
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
       <c r="E169" s="13" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="G169" s="22" t="s">
-        <v>32</v>
+        <v>573</v>
+      </c>
+      <c r="G169" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H169" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="J169" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K169" s="13" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L169" s="13"/>
-      <c r="M169" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N169" s="21"/>
-      <c r="O169" s="21"/>
-      <c r="P169" s="21"/>
-      <c r="Q169" s="21"/>
-      <c r="R169" s="21"/>
-      <c r="S169" s="21"/>
-      <c r="T169" s="21"/>
-      <c r="U169" s="21"/>
-      <c r="V169" s="21"/>
-      <c r="W169" s="21"/>
-      <c r="X169" s="21"/>
-      <c r="Y169" s="21"/>
-      <c r="Z169" s="21"/>
-      <c r="AA169" s="21"/>
+      <c r="M169" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N169" s="20"/>
+      <c r="O169" s="20"/>
+      <c r="P169" s="20"/>
+      <c r="Q169" s="20"/>
+      <c r="R169" s="20"/>
+      <c r="S169" s="20"/>
+      <c r="T169" s="20"/>
+      <c r="U169" s="20"/>
+      <c r="V169" s="20"/>
+      <c r="W169" s="20"/>
+      <c r="X169" s="20"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="20"/>
+      <c r="AA169" s="20"/>
     </row>
     <row r="170" s="3" customFormat="1" ht="30" spans="1:27">
-      <c r="A170" s="21"/>
-      <c r="B170" s="21"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
       <c r="E170" s="13" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F170" s="16" t="s">
-        <v>571</v>
-      </c>
-      <c r="G170" s="22" t="s">
-        <v>32</v>
+        <v>577</v>
+      </c>
+      <c r="G170" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H170" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="J170" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K170" s="13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="L170" s="13"/>
-      <c r="M170" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N170" s="21"/>
-      <c r="O170" s="21"/>
-      <c r="P170" s="21"/>
-      <c r="Q170" s="21"/>
-      <c r="R170" s="21"/>
-      <c r="S170" s="21"/>
-      <c r="T170" s="21"/>
-      <c r="U170" s="21"/>
-      <c r="V170" s="21"/>
-      <c r="W170" s="21"/>
-      <c r="X170" s="21"/>
-      <c r="Y170" s="21"/>
-      <c r="Z170" s="21"/>
-      <c r="AA170" s="21"/>
+      <c r="M170" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N170" s="20"/>
+      <c r="O170" s="20"/>
+      <c r="P170" s="20"/>
+      <c r="Q170" s="20"/>
+      <c r="R170" s="20"/>
+      <c r="S170" s="20"/>
+      <c r="T170" s="20"/>
+      <c r="U170" s="20"/>
+      <c r="V170" s="20"/>
+      <c r="W170" s="20"/>
+      <c r="X170" s="20"/>
+      <c r="Y170" s="20"/>
+      <c r="Z170" s="20"/>
+      <c r="AA170" s="20"/>
     </row>
     <row r="171" s="3" customFormat="1" ht="45" spans="1:27">
-      <c r="A171" s="21"/>
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
       <c r="E171" s="13" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="G171" s="22" t="s">
-        <v>32</v>
+        <v>581</v>
+      </c>
+      <c r="G171" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H171" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J171" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K171" s="13" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="L171" s="13"/>
-      <c r="M171" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N171" s="21"/>
-      <c r="O171" s="21"/>
-      <c r="P171" s="21"/>
-      <c r="Q171" s="21"/>
-      <c r="R171" s="21"/>
-      <c r="S171" s="21"/>
-      <c r="T171" s="21"/>
-      <c r="U171" s="21"/>
-      <c r="V171" s="21"/>
-      <c r="W171" s="21"/>
-      <c r="X171" s="21"/>
-      <c r="Y171" s="21"/>
-      <c r="Z171" s="21"/>
-      <c r="AA171" s="21"/>
+      <c r="M171" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N171" s="20"/>
+      <c r="O171" s="20"/>
+      <c r="P171" s="20"/>
+      <c r="Q171" s="20"/>
+      <c r="R171" s="20"/>
+      <c r="S171" s="20"/>
+      <c r="T171" s="20"/>
+      <c r="U171" s="20"/>
+      <c r="V171" s="20"/>
+      <c r="W171" s="20"/>
+      <c r="X171" s="20"/>
+      <c r="Y171" s="20"/>
+      <c r="Z171" s="20"/>
+      <c r="AA171" s="20"/>
     </row>
     <row r="172" s="3" customFormat="1" ht="45" spans="1:27">
-      <c r="A172" s="21"/>
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="21"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
       <c r="E172" s="13" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="G172" s="22" t="s">
-        <v>32</v>
+        <v>585</v>
+      </c>
+      <c r="G172" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H172" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="J172" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K172" s="13" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="L172" s="13"/>
-      <c r="M172" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N172" s="21"/>
-      <c r="O172" s="21"/>
-      <c r="P172" s="21"/>
-      <c r="Q172" s="21"/>
-      <c r="R172" s="21"/>
-      <c r="S172" s="21"/>
-      <c r="T172" s="21"/>
-      <c r="U172" s="21"/>
-      <c r="V172" s="21"/>
-      <c r="W172" s="21"/>
-      <c r="X172" s="21"/>
-      <c r="Y172" s="21"/>
-      <c r="Z172" s="21"/>
-      <c r="AA172" s="21"/>
+      <c r="M172" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N172" s="20"/>
+      <c r="O172" s="20"/>
+      <c r="P172" s="20"/>
+      <c r="Q172" s="20"/>
+      <c r="R172" s="20"/>
+      <c r="S172" s="20"/>
+      <c r="T172" s="20"/>
+      <c r="U172" s="20"/>
+      <c r="V172" s="20"/>
+      <c r="W172" s="20"/>
+      <c r="X172" s="20"/>
+      <c r="Y172" s="20"/>
+      <c r="Z172" s="20"/>
+      <c r="AA172" s="20"/>
     </row>
     <row r="173" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A173" s="20"/>
+      <c r="A173" s="19"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
-      <c r="J173" s="20"/>
-      <c r="K173" s="20"/>
-      <c r="L173" s="20"/>
-      <c r="M173" s="25"/>
-      <c r="N173" s="20"/>
-      <c r="O173" s="20"/>
-      <c r="P173" s="20"/>
-      <c r="Q173" s="20"/>
-      <c r="R173" s="20"/>
-      <c r="S173" s="20"/>
-      <c r="T173" s="21"/>
-      <c r="U173" s="21"/>
-      <c r="V173" s="21"/>
-      <c r="W173" s="21"/>
-      <c r="X173" s="21"/>
-      <c r="Y173" s="21"/>
-      <c r="Z173" s="21"/>
-      <c r="AA173" s="21"/>
+        <v>587</v>
+      </c>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="23"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="19"/>
+      <c r="Q173" s="19"/>
+      <c r="R173" s="19"/>
+      <c r="S173" s="19"/>
+      <c r="T173" s="20"/>
+      <c r="U173" s="20"/>
+      <c r="V173" s="20"/>
+      <c r="W173" s="20"/>
+      <c r="X173" s="20"/>
+      <c r="Y173" s="20"/>
+      <c r="Z173" s="20"/>
+      <c r="AA173" s="20"/>
     </row>
     <row r="174" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A174" s="21"/>
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
       <c r="E174" s="13" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F174" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="G174" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="G174" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H174" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="J174" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K174" s="13" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L174" s="13"/>
-      <c r="M174" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N174" s="21"/>
-      <c r="O174" s="21"/>
-      <c r="P174" s="21"/>
-      <c r="Q174" s="21"/>
-      <c r="R174" s="21"/>
-      <c r="S174" s="21"/>
-      <c r="T174" s="21"/>
-      <c r="U174" s="21"/>
-      <c r="V174" s="21"/>
-      <c r="W174" s="21"/>
-      <c r="X174" s="21"/>
-      <c r="Y174" s="21"/>
-      <c r="Z174" s="21"/>
-      <c r="AA174" s="21"/>
+      <c r="M174" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N174" s="20"/>
+      <c r="O174" s="20"/>
+      <c r="P174" s="20"/>
+      <c r="Q174" s="20"/>
+      <c r="R174" s="20"/>
+      <c r="S174" s="20"/>
+      <c r="T174" s="20"/>
+      <c r="U174" s="20"/>
+      <c r="V174" s="20"/>
+      <c r="W174" s="20"/>
+      <c r="X174" s="20"/>
+      <c r="Y174" s="20"/>
+      <c r="Z174" s="20"/>
+      <c r="AA174" s="20"/>
     </row>
     <row r="175" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A175" s="21"/>
-      <c r="B175" s="21"/>
-      <c r="C175" s="21"/>
-      <c r="D175" s="21"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
       <c r="E175" s="13" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="G175" s="22" t="s">
-        <v>32</v>
+        <v>590</v>
+      </c>
+      <c r="G175" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H175" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="J175" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K175" s="13" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="L175" s="13"/>
-      <c r="M175" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N175" s="21"/>
-      <c r="O175" s="21"/>
-      <c r="P175" s="21"/>
-      <c r="Q175" s="21"/>
-      <c r="R175" s="21"/>
-      <c r="S175" s="21"/>
-      <c r="T175" s="21"/>
-      <c r="U175" s="21"/>
-      <c r="V175" s="21"/>
-      <c r="W175" s="21"/>
-      <c r="X175" s="21"/>
-      <c r="Y175" s="21"/>
-      <c r="Z175" s="21"/>
-      <c r="AA175" s="21"/>
+      <c r="M175" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N175" s="20"/>
+      <c r="O175" s="20"/>
+      <c r="P175" s="20"/>
+      <c r="Q175" s="20"/>
+      <c r="R175" s="20"/>
+      <c r="S175" s="20"/>
+      <c r="T175" s="20"/>
+      <c r="U175" s="20"/>
+      <c r="V175" s="20"/>
+      <c r="W175" s="20"/>
+      <c r="X175" s="20"/>
+      <c r="Y175" s="20"/>
+      <c r="Z175" s="20"/>
+      <c r="AA175" s="20"/>
     </row>
     <row r="176" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A176" s="21"/>
-      <c r="B176" s="21"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="21"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
       <c r="E176" s="13" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="G176" s="22" t="s">
-        <v>32</v>
+        <v>591</v>
+      </c>
+      <c r="G176" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H176" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="J176" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K176" s="13" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L176" s="13"/>
-      <c r="M176" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N176" s="21"/>
-      <c r="O176" s="21"/>
-      <c r="P176" s="21"/>
-      <c r="Q176" s="21"/>
-      <c r="R176" s="21"/>
-      <c r="S176" s="21"/>
-      <c r="T176" s="21"/>
-      <c r="U176" s="21"/>
-      <c r="V176" s="21"/>
-      <c r="W176" s="21"/>
-      <c r="X176" s="21"/>
-      <c r="Y176" s="21"/>
-      <c r="Z176" s="21"/>
-      <c r="AA176" s="21"/>
+      <c r="M176" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N176" s="20"/>
+      <c r="O176" s="20"/>
+      <c r="P176" s="20"/>
+      <c r="Q176" s="20"/>
+      <c r="R176" s="20"/>
+      <c r="S176" s="20"/>
+      <c r="T176" s="20"/>
+      <c r="U176" s="20"/>
+      <c r="V176" s="20"/>
+      <c r="W176" s="20"/>
+      <c r="X176" s="20"/>
+      <c r="Y176" s="20"/>
+      <c r="Z176" s="20"/>
+      <c r="AA176" s="20"/>
     </row>
     <row r="177" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A177" s="21"/>
-      <c r="B177" s="21"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="21"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
       <c r="E177" s="13" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="G177" s="22" t="s">
-        <v>32</v>
+        <v>592</v>
+      </c>
+      <c r="G177" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H177" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="J177" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K177" s="13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="L177" s="13"/>
-      <c r="M177" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N177" s="21"/>
-      <c r="O177" s="21"/>
-      <c r="P177" s="21"/>
-      <c r="Q177" s="21"/>
-      <c r="R177" s="21"/>
-      <c r="S177" s="21"/>
-      <c r="T177" s="21"/>
-      <c r="U177" s="21"/>
-      <c r="V177" s="21"/>
-      <c r="W177" s="21"/>
-      <c r="X177" s="21"/>
-      <c r="Y177" s="21"/>
-      <c r="Z177" s="21"/>
-      <c r="AA177" s="21"/>
+      <c r="M177" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N177" s="20"/>
+      <c r="O177" s="20"/>
+      <c r="P177" s="20"/>
+      <c r="Q177" s="20"/>
+      <c r="R177" s="20"/>
+      <c r="S177" s="20"/>
+      <c r="T177" s="20"/>
+      <c r="U177" s="20"/>
+      <c r="V177" s="20"/>
+      <c r="W177" s="20"/>
+      <c r="X177" s="20"/>
+      <c r="Y177" s="20"/>
+      <c r="Z177" s="20"/>
+      <c r="AA177" s="20"/>
     </row>
     <row r="178" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A178" s="21"/>
-      <c r="B178" s="21"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="21"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
       <c r="E178" s="13" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F178" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="G178" s="22" t="s">
-        <v>32</v>
+        <v>593</v>
+      </c>
+      <c r="G178" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H178" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J178" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K178" s="13" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="L178" s="13"/>
-      <c r="M178" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N178" s="21"/>
-      <c r="O178" s="21"/>
-      <c r="P178" s="21"/>
-      <c r="Q178" s="21"/>
-      <c r="R178" s="21"/>
-      <c r="S178" s="21"/>
-      <c r="T178" s="21"/>
-      <c r="U178" s="21"/>
-      <c r="V178" s="21"/>
-      <c r="W178" s="21"/>
-      <c r="X178" s="21"/>
-      <c r="Y178" s="21"/>
-      <c r="Z178" s="21"/>
-      <c r="AA178" s="21"/>
+      <c r="M178" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N178" s="20"/>
+      <c r="O178" s="20"/>
+      <c r="P178" s="20"/>
+      <c r="Q178" s="20"/>
+      <c r="R178" s="20"/>
+      <c r="S178" s="20"/>
+      <c r="T178" s="20"/>
+      <c r="U178" s="20"/>
+      <c r="V178" s="20"/>
+      <c r="W178" s="20"/>
+      <c r="X178" s="20"/>
+      <c r="Y178" s="20"/>
+      <c r="Z178" s="20"/>
+      <c r="AA178" s="20"/>
     </row>
     <row r="179" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A179" s="21"/>
-      <c r="B179" s="21"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="21"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
       <c r="E179" s="13" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="G179" s="22" t="s">
-        <v>32</v>
+        <v>594</v>
+      </c>
+      <c r="G179" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H179" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="J179" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K179" s="13" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="L179" s="13"/>
-      <c r="M179" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N179" s="21"/>
-      <c r="O179" s="21"/>
-      <c r="P179" s="21"/>
-      <c r="Q179" s="21"/>
-      <c r="R179" s="21"/>
-      <c r="S179" s="21"/>
-      <c r="T179" s="21"/>
-      <c r="U179" s="21"/>
-      <c r="V179" s="21"/>
-      <c r="W179" s="21"/>
-      <c r="X179" s="21"/>
-      <c r="Y179" s="21"/>
-      <c r="Z179" s="21"/>
-      <c r="AA179" s="21"/>
+      <c r="M179" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N179" s="20"/>
+      <c r="O179" s="20"/>
+      <c r="P179" s="20"/>
+      <c r="Q179" s="20"/>
+      <c r="R179" s="20"/>
+      <c r="S179" s="20"/>
+      <c r="T179" s="20"/>
+      <c r="U179" s="20"/>
+      <c r="V179" s="20"/>
+      <c r="W179" s="20"/>
+      <c r="X179" s="20"/>
+      <c r="Y179" s="20"/>
+      <c r="Z179" s="20"/>
+      <c r="AA179" s="20"/>
     </row>
     <row r="180" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A180" s="20"/>
+      <c r="A180" s="19"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
-      <c r="J180" s="20"/>
-      <c r="K180" s="20"/>
-      <c r="L180" s="20"/>
-      <c r="M180" s="25"/>
-      <c r="N180" s="20"/>
-      <c r="O180" s="20"/>
-      <c r="P180" s="20"/>
-      <c r="Q180" s="20"/>
-      <c r="R180" s="20"/>
-      <c r="S180" s="20"/>
-      <c r="T180" s="21"/>
-      <c r="U180" s="21"/>
-      <c r="V180" s="21"/>
-      <c r="W180" s="21"/>
-      <c r="X180" s="21"/>
-      <c r="Y180" s="21"/>
-      <c r="Z180" s="21"/>
-      <c r="AA180" s="21"/>
+        <v>595</v>
+      </c>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="23"/>
+      <c r="N180" s="19"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="19"/>
+      <c r="Q180" s="19"/>
+      <c r="R180" s="19"/>
+      <c r="S180" s="19"/>
+      <c r="T180" s="20"/>
+      <c r="U180" s="20"/>
+      <c r="V180" s="20"/>
+      <c r="W180" s="20"/>
+      <c r="X180" s="20"/>
+      <c r="Y180" s="20"/>
+      <c r="Z180" s="20"/>
+      <c r="AA180" s="20"/>
     </row>
     <row r="181" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A181" s="21"/>
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
       <c r="E181" s="13" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="G181" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="G181" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H181" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="J181" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K181" s="13" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L181" s="13"/>
-      <c r="M181" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N181" s="21"/>
-      <c r="O181" s="21"/>
-      <c r="P181" s="21"/>
-      <c r="Q181" s="21"/>
-      <c r="R181" s="21"/>
-      <c r="S181" s="21"/>
-      <c r="T181" s="21"/>
-      <c r="U181" s="21"/>
-      <c r="V181" s="21"/>
-      <c r="W181" s="21"/>
-      <c r="X181" s="21"/>
-      <c r="Y181" s="21"/>
-      <c r="Z181" s="21"/>
-      <c r="AA181" s="21"/>
+      <c r="M181" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N181" s="20"/>
+      <c r="O181" s="20"/>
+      <c r="P181" s="20"/>
+      <c r="Q181" s="20"/>
+      <c r="R181" s="20"/>
+      <c r="S181" s="20"/>
+      <c r="T181" s="20"/>
+      <c r="U181" s="20"/>
+      <c r="V181" s="20"/>
+      <c r="W181" s="20"/>
+      <c r="X181" s="20"/>
+      <c r="Y181" s="20"/>
+      <c r="Z181" s="20"/>
+      <c r="AA181" s="20"/>
     </row>
     <row r="182" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A182" s="21"/>
-      <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
       <c r="E182" s="13" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="G182" s="22" t="s">
-        <v>32</v>
+        <v>597</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H182" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="J182" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K182" s="13" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="L182" s="13"/>
-      <c r="M182" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N182" s="21"/>
-      <c r="O182" s="21"/>
-      <c r="P182" s="21"/>
-      <c r="Q182" s="21"/>
-      <c r="R182" s="21"/>
-      <c r="S182" s="21"/>
-      <c r="T182" s="21"/>
-      <c r="U182" s="21"/>
-      <c r="V182" s="21"/>
-      <c r="W182" s="21"/>
-      <c r="X182" s="21"/>
-      <c r="Y182" s="21"/>
-      <c r="Z182" s="21"/>
-      <c r="AA182" s="21"/>
+      <c r="M182" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N182" s="20"/>
+      <c r="O182" s="20"/>
+      <c r="P182" s="20"/>
+      <c r="Q182" s="20"/>
+      <c r="R182" s="20"/>
+      <c r="S182" s="20"/>
+      <c r="T182" s="20"/>
+      <c r="U182" s="20"/>
+      <c r="V182" s="20"/>
+      <c r="W182" s="20"/>
+      <c r="X182" s="20"/>
+      <c r="Y182" s="20"/>
+      <c r="Z182" s="20"/>
+      <c r="AA182" s="20"/>
     </row>
     <row r="183" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A183" s="21"/>
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
       <c r="E183" s="13" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="G183" s="22" t="s">
-        <v>32</v>
+        <v>598</v>
+      </c>
+      <c r="G183" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H183" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="J183" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K183" s="13" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L183" s="13"/>
-      <c r="M183" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N183" s="21"/>
-      <c r="O183" s="21"/>
-      <c r="P183" s="21"/>
-      <c r="Q183" s="21"/>
-      <c r="R183" s="21"/>
-      <c r="S183" s="21"/>
-      <c r="T183" s="21"/>
-      <c r="U183" s="21"/>
-      <c r="V183" s="21"/>
-      <c r="W183" s="21"/>
-      <c r="X183" s="21"/>
-      <c r="Y183" s="21"/>
-      <c r="Z183" s="21"/>
-      <c r="AA183" s="21"/>
+      <c r="M183" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N183" s="20"/>
+      <c r="O183" s="20"/>
+      <c r="P183" s="20"/>
+      <c r="Q183" s="20"/>
+      <c r="R183" s="20"/>
+      <c r="S183" s="20"/>
+      <c r="T183" s="20"/>
+      <c r="U183" s="20"/>
+      <c r="V183" s="20"/>
+      <c r="W183" s="20"/>
+      <c r="X183" s="20"/>
+      <c r="Y183" s="20"/>
+      <c r="Z183" s="20"/>
+      <c r="AA183" s="20"/>
     </row>
     <row r="184" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A184" s="21"/>
-      <c r="B184" s="21"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
       <c r="E184" s="13" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="G184" s="22" t="s">
-        <v>32</v>
+        <v>599</v>
+      </c>
+      <c r="G184" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H184" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="J184" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K184" s="13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="L184" s="13"/>
-      <c r="M184" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N184" s="21"/>
-      <c r="O184" s="21"/>
-      <c r="P184" s="21"/>
-      <c r="Q184" s="21"/>
-      <c r="R184" s="21"/>
-      <c r="S184" s="21"/>
-      <c r="T184" s="21"/>
-      <c r="U184" s="21"/>
-      <c r="V184" s="21"/>
-      <c r="W184" s="21"/>
-      <c r="X184" s="21"/>
-      <c r="Y184" s="21"/>
-      <c r="Z184" s="21"/>
-      <c r="AA184" s="21"/>
+      <c r="M184" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N184" s="20"/>
+      <c r="O184" s="20"/>
+      <c r="P184" s="20"/>
+      <c r="Q184" s="20"/>
+      <c r="R184" s="20"/>
+      <c r="S184" s="20"/>
+      <c r="T184" s="20"/>
+      <c r="U184" s="20"/>
+      <c r="V184" s="20"/>
+      <c r="W184" s="20"/>
+      <c r="X184" s="20"/>
+      <c r="Y184" s="20"/>
+      <c r="Z184" s="20"/>
+      <c r="AA184" s="20"/>
     </row>
     <row r="185" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A185" s="21"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="21"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
       <c r="E185" s="13" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="G185" s="22" t="s">
-        <v>32</v>
+        <v>600</v>
+      </c>
+      <c r="G185" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H185" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J185" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K185" s="13" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="L185" s="13"/>
-      <c r="M185" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N185" s="21"/>
-      <c r="O185" s="21"/>
-      <c r="P185" s="21"/>
-      <c r="Q185" s="21"/>
-      <c r="R185" s="21"/>
-      <c r="S185" s="21"/>
-      <c r="T185" s="21"/>
-      <c r="U185" s="21"/>
-      <c r="V185" s="21"/>
-      <c r="W185" s="21"/>
-      <c r="X185" s="21"/>
-      <c r="Y185" s="21"/>
-      <c r="Z185" s="21"/>
-      <c r="AA185" s="21"/>
+      <c r="M185" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N185" s="20"/>
+      <c r="O185" s="20"/>
+      <c r="P185" s="20"/>
+      <c r="Q185" s="20"/>
+      <c r="R185" s="20"/>
+      <c r="S185" s="20"/>
+      <c r="T185" s="20"/>
+      <c r="U185" s="20"/>
+      <c r="V185" s="20"/>
+      <c r="W185" s="20"/>
+      <c r="X185" s="20"/>
+      <c r="Y185" s="20"/>
+      <c r="Z185" s="20"/>
+      <c r="AA185" s="20"/>
     </row>
     <row r="186" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A186" s="21"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="21"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
       <c r="E186" s="13" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F186" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="G186" s="22" t="s">
-        <v>32</v>
+        <v>601</v>
+      </c>
+      <c r="G186" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H186" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I186" s="13" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="J186" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K186" s="13" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="L186" s="13"/>
-      <c r="M186" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N186" s="21"/>
-      <c r="O186" s="21"/>
-      <c r="P186" s="21"/>
-      <c r="Q186" s="21"/>
-      <c r="R186" s="21"/>
-      <c r="S186" s="21"/>
-      <c r="T186" s="21"/>
-      <c r="U186" s="21"/>
-      <c r="V186" s="21"/>
-      <c r="W186" s="21"/>
-      <c r="X186" s="21"/>
-      <c r="Y186" s="21"/>
-      <c r="Z186" s="21"/>
-      <c r="AA186" s="21"/>
+      <c r="M186" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N186" s="20"/>
+      <c r="O186" s="20"/>
+      <c r="P186" s="20"/>
+      <c r="Q186" s="20"/>
+      <c r="R186" s="20"/>
+      <c r="S186" s="20"/>
+      <c r="T186" s="20"/>
+      <c r="U186" s="20"/>
+      <c r="V186" s="20"/>
+      <c r="W186" s="20"/>
+      <c r="X186" s="20"/>
+      <c r="Y186" s="20"/>
+      <c r="Z186" s="20"/>
+      <c r="AA186" s="20"/>
     </row>
     <row r="187" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A187" s="20"/>
+      <c r="A187" s="19"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
-      <c r="J187" s="20"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="M187" s="25"/>
-      <c r="N187" s="20"/>
-      <c r="O187" s="20"/>
-      <c r="P187" s="20"/>
-      <c r="Q187" s="20"/>
-      <c r="R187" s="20"/>
-      <c r="S187" s="20"/>
-      <c r="T187" s="21"/>
-      <c r="U187" s="21"/>
-      <c r="V187" s="21"/>
-      <c r="W187" s="21"/>
-      <c r="X187" s="21"/>
-      <c r="Y187" s="21"/>
-      <c r="Z187" s="21"/>
-      <c r="AA187" s="21"/>
+        <v>602</v>
+      </c>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="23"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="19"/>
+      <c r="S187" s="19"/>
+      <c r="T187" s="20"/>
+      <c r="U187" s="20"/>
+      <c r="V187" s="20"/>
+      <c r="W187" s="20"/>
+      <c r="X187" s="20"/>
+      <c r="Y187" s="20"/>
+      <c r="Z187" s="20"/>
+      <c r="AA187" s="20"/>
     </row>
     <row r="188" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A188" s="21"/>
-      <c r="B188" s="21"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="21"/>
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
       <c r="E188" s="13" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="G188" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="G188" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H188" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I188" s="13" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="J188" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K188" s="13" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="L188" s="13"/>
-      <c r="M188" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N188" s="21"/>
-      <c r="O188" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="P188" s="21"/>
-      <c r="Q188" s="21"/>
-      <c r="R188" s="21"/>
-      <c r="S188" s="21"/>
-      <c r="T188" s="21"/>
-      <c r="U188" s="21"/>
-      <c r="V188" s="21"/>
-      <c r="W188" s="21"/>
-      <c r="X188" s="21"/>
-      <c r="Y188" s="21"/>
-      <c r="Z188" s="21"/>
-      <c r="AA188" s="21"/>
+      <c r="M188" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N188" s="20"/>
+      <c r="O188" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="P188" s="20"/>
+      <c r="Q188" s="20"/>
+      <c r="R188" s="20"/>
+      <c r="S188" s="20"/>
+      <c r="T188" s="20"/>
+      <c r="U188" s="20"/>
+      <c r="V188" s="20"/>
+      <c r="W188" s="20"/>
+      <c r="X188" s="20"/>
+      <c r="Y188" s="20"/>
+      <c r="Z188" s="20"/>
+      <c r="AA188" s="20"/>
     </row>
     <row r="189" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A189" s="20"/>
+      <c r="A189" s="19"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="20"/>
-      <c r="I189" s="20"/>
-      <c r="J189" s="20"/>
-      <c r="K189" s="20"/>
-      <c r="L189" s="20"/>
-      <c r="M189" s="25"/>
-      <c r="N189" s="20"/>
-      <c r="O189" s="20"/>
-      <c r="P189" s="20"/>
-      <c r="Q189" s="20"/>
-      <c r="R189" s="20"/>
-      <c r="S189" s="20"/>
-      <c r="T189" s="21"/>
-      <c r="U189" s="21"/>
-      <c r="V189" s="21"/>
-      <c r="W189" s="21"/>
-      <c r="X189" s="21"/>
-      <c r="Y189" s="21"/>
-      <c r="Z189" s="21"/>
-      <c r="AA189" s="21"/>
+        <v>608</v>
+      </c>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="19"/>
+      <c r="L189" s="19"/>
+      <c r="M189" s="23"/>
+      <c r="N189" s="19"/>
+      <c r="O189" s="19"/>
+      <c r="P189" s="19"/>
+      <c r="Q189" s="19"/>
+      <c r="R189" s="19"/>
+      <c r="S189" s="19"/>
+      <c r="T189" s="20"/>
+      <c r="U189" s="20"/>
+      <c r="V189" s="20"/>
+      <c r="W189" s="20"/>
+      <c r="X189" s="20"/>
+      <c r="Y189" s="20"/>
+      <c r="Z189" s="20"/>
+      <c r="AA189" s="20"/>
     </row>
     <row r="190" s="3" customFormat="1" ht="30" spans="1:27">
-      <c r="A190" s="21"/>
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
       <c r="E190" s="13" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="G190" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="G190" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H190" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="J190" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K190" s="13" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="L190" s="13"/>
-      <c r="M190" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N190" s="21"/>
-      <c r="O190" s="21"/>
-      <c r="P190" s="21"/>
-      <c r="Q190" s="21"/>
-      <c r="R190" s="21"/>
-      <c r="S190" s="21"/>
-      <c r="T190" s="21"/>
-      <c r="U190" s="21"/>
-      <c r="V190" s="21"/>
-      <c r="W190" s="21"/>
-      <c r="X190" s="21"/>
-      <c r="Y190" s="21"/>
-      <c r="Z190" s="21"/>
-      <c r="AA190" s="21"/>
-    </row>
-    <row r="191" s="3" customFormat="1" ht="45" spans="1:27">
-      <c r="A191" s="21"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
+      <c r="M190" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N190" s="20"/>
+      <c r="O190" s="20"/>
+      <c r="P190" s="20"/>
+      <c r="Q190" s="20"/>
+      <c r="R190" s="20"/>
+      <c r="S190" s="20"/>
+      <c r="T190" s="20"/>
+      <c r="U190" s="20"/>
+      <c r="V190" s="20"/>
+      <c r="W190" s="20"/>
+      <c r="X190" s="20"/>
+      <c r="Y190" s="20"/>
+      <c r="Z190" s="20"/>
+      <c r="AA190" s="20"/>
+    </row>
+    <row r="191" s="3" customFormat="1" ht="30" spans="1:27">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
       <c r="E191" s="13" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="G191" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="G191" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H191" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="J191" s="13" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K191" s="13" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="L191" s="13"/>
-      <c r="M191" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N191" s="21"/>
-      <c r="O191" s="21"/>
-      <c r="P191" s="21"/>
-      <c r="Q191" s="21"/>
-      <c r="R191" s="21"/>
-      <c r="S191" s="21"/>
-      <c r="T191" s="21"/>
-      <c r="U191" s="21"/>
-      <c r="V191" s="21"/>
-      <c r="W191" s="21"/>
-      <c r="X191" s="21"/>
-      <c r="Y191" s="21"/>
-      <c r="Z191" s="21"/>
-      <c r="AA191" s="21"/>
-    </row>
-    <row r="192" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A192" s="21"/>
-      <c r="B192" s="21"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
+      <c r="M191" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N191" s="20"/>
+      <c r="O191" s="20"/>
+      <c r="P191" s="20"/>
+      <c r="Q191" s="20"/>
+      <c r="R191" s="20"/>
+      <c r="S191" s="20"/>
+      <c r="T191" s="20"/>
+      <c r="U191" s="20"/>
+      <c r="V191" s="20"/>
+      <c r="W191" s="20"/>
+      <c r="X191" s="20"/>
+      <c r="Y191" s="20"/>
+      <c r="Z191" s="20"/>
+      <c r="AA191" s="20"/>
+    </row>
+    <row r="192" s="3" customFormat="1" ht="60" spans="1:27">
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
       <c r="E192" s="13" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="G192" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="G192" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H192" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I192" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="J192" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="K192" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="J192" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="K192" s="13" t="s">
-        <v>606</v>
-      </c>
       <c r="L192" s="13"/>
-      <c r="M192" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N192" s="21"/>
-      <c r="O192" s="21"/>
-      <c r="P192" s="21"/>
-      <c r="Q192" s="21"/>
-      <c r="R192" s="21"/>
-      <c r="S192" s="21"/>
-      <c r="T192" s="21"/>
-      <c r="U192" s="21"/>
-      <c r="V192" s="21"/>
-      <c r="W192" s="21"/>
-      <c r="X192" s="21"/>
-      <c r="Y192" s="21"/>
-      <c r="Z192" s="21"/>
-      <c r="AA192" s="21"/>
-    </row>
-    <row r="193" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A193" s="21"/>
-      <c r="B193" s="21"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
+      <c r="M192" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N192" s="20"/>
+      <c r="O192" s="20"/>
+      <c r="P192" s="20"/>
+      <c r="Q192" s="20"/>
+      <c r="R192" s="20"/>
+      <c r="S192" s="20"/>
+      <c r="T192" s="20"/>
+      <c r="U192" s="20"/>
+      <c r="V192" s="20"/>
+      <c r="W192" s="20"/>
+      <c r="X192" s="20"/>
+      <c r="Y192" s="20"/>
+      <c r="Z192" s="20"/>
+      <c r="AA192" s="20"/>
+    </row>
+    <row r="193" s="3" customFormat="1" ht="45" spans="1:27">
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
       <c r="E193" s="13" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="G193" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="G193" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H193" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="J193" s="13" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K193" s="13" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="L193" s="13"/>
-      <c r="M193" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N193" s="21"/>
-      <c r="O193" s="21"/>
-      <c r="P193" s="21"/>
-      <c r="Q193" s="21"/>
-      <c r="R193" s="21"/>
-      <c r="S193" s="21"/>
-      <c r="T193" s="21"/>
-      <c r="U193" s="21"/>
-      <c r="V193" s="21"/>
-      <c r="W193" s="21"/>
-      <c r="X193" s="21"/>
-      <c r="Y193" s="21"/>
-      <c r="Z193" s="21"/>
-      <c r="AA193" s="21"/>
+      <c r="M193" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N193" s="20"/>
+      <c r="O193" s="20"/>
+      <c r="P193" s="20"/>
+      <c r="Q193" s="20"/>
+      <c r="R193" s="20"/>
+      <c r="S193" s="20"/>
+      <c r="T193" s="20"/>
+      <c r="U193" s="20"/>
+      <c r="V193" s="20"/>
+      <c r="W193" s="20"/>
+      <c r="X193" s="20"/>
+      <c r="Y193" s="20"/>
+      <c r="Z193" s="20"/>
+      <c r="AA193" s="20"/>
     </row>
     <row r="194" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A194" s="20"/>
+      <c r="A194" s="19"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D194" s="11"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="20"/>
-      <c r="H194" s="20"/>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="20"/>
-      <c r="L194" s="20"/>
-      <c r="M194" s="25"/>
-      <c r="N194" s="20"/>
-      <c r="O194" s="20"/>
-      <c r="P194" s="20"/>
-      <c r="Q194" s="20"/>
-      <c r="R194" s="20"/>
-      <c r="S194" s="20"/>
-      <c r="T194" s="21"/>
-      <c r="U194" s="21"/>
-      <c r="V194" s="21"/>
-      <c r="W194" s="21"/>
-      <c r="X194" s="21"/>
-      <c r="Y194" s="21"/>
-      <c r="Z194" s="21"/>
-      <c r="AA194" s="21"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="23"/>
+      <c r="N194" s="19"/>
+      <c r="O194" s="19"/>
+      <c r="P194" s="19"/>
+      <c r="Q194" s="19"/>
+      <c r="R194" s="19"/>
+      <c r="S194" s="19"/>
+      <c r="T194" s="20"/>
+      <c r="U194" s="20"/>
+      <c r="V194" s="20"/>
+      <c r="W194" s="20"/>
+      <c r="X194" s="20"/>
+      <c r="Y194" s="20"/>
+      <c r="Z194" s="20"/>
+      <c r="AA194" s="20"/>
     </row>
     <row r="195" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A195" s="20"/>
+      <c r="A195" s="19"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="20"/>
-      <c r="H195" s="20"/>
-      <c r="I195" s="20"/>
-      <c r="J195" s="20"/>
-      <c r="K195" s="20"/>
-      <c r="L195" s="20"/>
-      <c r="M195" s="25"/>
-      <c r="N195" s="20"/>
-      <c r="O195" s="20"/>
-      <c r="P195" s="20"/>
-      <c r="Q195" s="20"/>
-      <c r="R195" s="20"/>
-      <c r="S195" s="20"/>
-      <c r="T195" s="21"/>
-      <c r="U195" s="21"/>
-      <c r="V195" s="21"/>
-      <c r="W195" s="21"/>
-      <c r="X195" s="21"/>
-      <c r="Y195" s="21"/>
-      <c r="Z195" s="21"/>
-      <c r="AA195" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="19"/>
+      <c r="L195" s="19"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="19"/>
+      <c r="O195" s="19"/>
+      <c r="P195" s="19"/>
+      <c r="Q195" s="19"/>
+      <c r="R195" s="19"/>
+      <c r="S195" s="19"/>
+      <c r="T195" s="20"/>
+      <c r="U195" s="20"/>
+      <c r="V195" s="20"/>
+      <c r="W195" s="20"/>
+      <c r="X195" s="20"/>
+      <c r="Y195" s="20"/>
+      <c r="Z195" s="20"/>
+      <c r="AA195" s="20"/>
     </row>
     <row r="196" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A196" s="21"/>
-      <c r="B196" s="21"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
       <c r="E196" s="13" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="G196" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="G196" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H196" s="16" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="I196" s="13"/>
       <c r="J196" s="13" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="K196" s="13" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="L196" s="13"/>
-      <c r="M196" s="26"/>
-      <c r="N196" s="21"/>
-      <c r="O196" s="21"/>
-      <c r="P196" s="21"/>
-      <c r="Q196" s="21"/>
-      <c r="R196" s="21"/>
-      <c r="S196" s="21"/>
-      <c r="T196" s="21"/>
-      <c r="U196" s="21"/>
-      <c r="V196" s="21"/>
-      <c r="W196" s="21"/>
-      <c r="X196" s="21"/>
-      <c r="Y196" s="21"/>
-      <c r="Z196" s="21"/>
-      <c r="AA196" s="21"/>
+      <c r="M196" s="24"/>
+      <c r="N196" s="20"/>
+      <c r="O196" s="20"/>
+      <c r="P196" s="20"/>
+      <c r="Q196" s="20"/>
+      <c r="R196" s="20"/>
+      <c r="S196" s="20"/>
+      <c r="T196" s="20"/>
+      <c r="U196" s="20"/>
+      <c r="V196" s="20"/>
+      <c r="W196" s="20"/>
+      <c r="X196" s="20"/>
+      <c r="Y196" s="20"/>
+      <c r="Z196" s="20"/>
+      <c r="AA196" s="20"/>
     </row>
     <row r="197" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A197" s="21"/>
-      <c r="B197" s="21"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="21"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
       <c r="E197" s="13" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="G197" s="22" t="s">
-        <v>455</v>
+        <v>631</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>461</v>
       </c>
       <c r="H197" s="16" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="I197" s="13"/>
       <c r="J197" s="13" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="K197" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="L197" s="13"/>
+      <c r="M197" s="24"/>
+      <c r="N197" s="20"/>
+      <c r="O197" s="20"/>
+      <c r="P197" s="20"/>
+      <c r="Q197" s="20"/>
+      <c r="R197" s="20"/>
+      <c r="S197" s="20"/>
+      <c r="T197" s="20"/>
+      <c r="U197" s="20"/>
+      <c r="V197" s="20"/>
+      <c r="W197" s="20"/>
+      <c r="X197" s="20"/>
+      <c r="Y197" s="20"/>
+      <c r="Z197" s="20"/>
+      <c r="AA197" s="20"/>
+    </row>
+    <row r="198" s="3" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="F198" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="G198" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="H198" s="16" t="s">
         <v>627</v>
-      </c>
-      <c r="L197" s="13"/>
-      <c r="M197" s="26"/>
-      <c r="N197" s="21"/>
-      <c r="O197" s="21"/>
-      <c r="P197" s="21"/>
-      <c r="Q197" s="21"/>
-      <c r="R197" s="21"/>
-      <c r="S197" s="21"/>
-      <c r="T197" s="21"/>
-      <c r="U197" s="21"/>
-      <c r="V197" s="21"/>
-      <c r="W197" s="21"/>
-      <c r="X197" s="21"/>
-      <c r="Y197" s="21"/>
-      <c r="Z197" s="21"/>
-      <c r="AA197" s="21"/>
-    </row>
-    <row r="198" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A198" s="21"/>
-      <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="F198" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="G198" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="H198" s="16" t="s">
-        <v>621</v>
       </c>
       <c r="I198" s="13"/>
       <c r="J198" s="13" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="K198" s="13" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="L198" s="13"/>
-      <c r="M198" s="26"/>
-      <c r="N198" s="21"/>
-      <c r="O198" s="21"/>
-      <c r="P198" s="21"/>
-      <c r="Q198" s="21"/>
-      <c r="R198" s="21"/>
-      <c r="S198" s="21"/>
-      <c r="T198" s="21"/>
-      <c r="U198" s="21"/>
-      <c r="V198" s="21"/>
-      <c r="W198" s="21"/>
-      <c r="X198" s="21"/>
-      <c r="Y198" s="21"/>
-      <c r="Z198" s="21"/>
-      <c r="AA198" s="21"/>
+      <c r="M198" s="24"/>
+      <c r="N198" s="20"/>
+      <c r="O198" s="20"/>
+      <c r="P198" s="20"/>
+      <c r="Q198" s="20"/>
+      <c r="R198" s="20"/>
+      <c r="S198" s="20"/>
+      <c r="T198" s="20"/>
+      <c r="U198" s="20"/>
+      <c r="V198" s="20"/>
+      <c r="W198" s="20"/>
+      <c r="X198" s="20"/>
+      <c r="Y198" s="20"/>
+      <c r="Z198" s="20"/>
+      <c r="AA198" s="20"/>
     </row>
     <row r="199" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A199" s="20"/>
+      <c r="A199" s="19"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E199" s="20"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="20"/>
-      <c r="H199" s="20"/>
-      <c r="I199" s="20"/>
-      <c r="J199" s="20"/>
-      <c r="K199" s="20"/>
-      <c r="L199" s="20"/>
-      <c r="M199" s="25"/>
-      <c r="N199" s="20"/>
-      <c r="O199" s="20"/>
-      <c r="P199" s="20"/>
-      <c r="Q199" s="20"/>
-      <c r="R199" s="20"/>
-      <c r="S199" s="20"/>
-      <c r="T199" s="21"/>
-      <c r="U199" s="21"/>
-      <c r="V199" s="21"/>
-      <c r="W199" s="21"/>
-      <c r="X199" s="21"/>
-      <c r="Y199" s="21"/>
-      <c r="Z199" s="21"/>
-      <c r="AA199" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="19"/>
+      <c r="M199" s="23"/>
+      <c r="N199" s="19"/>
+      <c r="O199" s="19"/>
+      <c r="P199" s="19"/>
+      <c r="Q199" s="19"/>
+      <c r="R199" s="19"/>
+      <c r="S199" s="19"/>
+      <c r="T199" s="20"/>
+      <c r="U199" s="20"/>
+      <c r="V199" s="20"/>
+      <c r="W199" s="20"/>
+      <c r="X199" s="20"/>
+      <c r="Y199" s="20"/>
+      <c r="Z199" s="20"/>
+      <c r="AA199" s="20"/>
     </row>
     <row r="200" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A200" s="21"/>
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="21"/>
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
       <c r="E200" s="13" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="F200" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="G200" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="G200" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H200" s="16" t="s">
@@ -9644,153 +9689,153 @@
       </c>
       <c r="I200" s="13"/>
       <c r="J200" s="13" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="K200" s="13" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="L200" s="13"/>
-      <c r="M200" s="26"/>
-      <c r="N200" s="21"/>
-      <c r="O200" s="21"/>
-      <c r="P200" s="21"/>
-      <c r="Q200" s="21"/>
-      <c r="R200" s="21"/>
-      <c r="S200" s="21"/>
-      <c r="T200" s="21"/>
-      <c r="U200" s="21"/>
-      <c r="V200" s="21"/>
-      <c r="W200" s="21"/>
-      <c r="X200" s="21"/>
-      <c r="Y200" s="21"/>
-      <c r="Z200" s="21"/>
-      <c r="AA200" s="21"/>
+      <c r="M200" s="24"/>
+      <c r="N200" s="20"/>
+      <c r="O200" s="20"/>
+      <c r="P200" s="20"/>
+      <c r="Q200" s="20"/>
+      <c r="R200" s="20"/>
+      <c r="S200" s="20"/>
+      <c r="T200" s="20"/>
+      <c r="U200" s="20"/>
+      <c r="V200" s="20"/>
+      <c r="W200" s="20"/>
+      <c r="X200" s="20"/>
+      <c r="Y200" s="20"/>
+      <c r="Z200" s="20"/>
+      <c r="AA200" s="20"/>
     </row>
     <row r="201" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A201" s="21"/>
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
       <c r="E201" s="13" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F201" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="G201" s="22" t="s">
-        <v>32</v>
+        <v>643</v>
+      </c>
+      <c r="G201" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H201" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I201" s="13"/>
       <c r="J201" s="13" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="K201" s="13" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="L201" s="13"/>
-      <c r="M201" s="26"/>
-      <c r="N201" s="21"/>
-      <c r="O201" s="21"/>
-      <c r="P201" s="21"/>
-      <c r="Q201" s="21"/>
-      <c r="R201" s="21"/>
-      <c r="S201" s="21"/>
-      <c r="T201" s="21"/>
-      <c r="U201" s="21"/>
-      <c r="V201" s="21"/>
-      <c r="W201" s="21"/>
-      <c r="X201" s="21"/>
-      <c r="Y201" s="21"/>
-      <c r="Z201" s="21"/>
-      <c r="AA201" s="21"/>
+      <c r="M201" s="24"/>
+      <c r="N201" s="20"/>
+      <c r="O201" s="20"/>
+      <c r="P201" s="20"/>
+      <c r="Q201" s="20"/>
+      <c r="R201" s="20"/>
+      <c r="S201" s="20"/>
+      <c r="T201" s="20"/>
+      <c r="U201" s="20"/>
+      <c r="V201" s="20"/>
+      <c r="W201" s="20"/>
+      <c r="X201" s="20"/>
+      <c r="Y201" s="20"/>
+      <c r="Z201" s="20"/>
+      <c r="AA201" s="20"/>
     </row>
     <row r="202" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A202" s="21"/>
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21"/>
+      <c r="A202" s="20"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
       <c r="E202" s="13" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="F202" s="16" t="s">
-        <v>640</v>
-      </c>
-      <c r="G202" s="22" t="s">
-        <v>32</v>
+        <v>646</v>
+      </c>
+      <c r="G202" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H202" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I202" s="13"/>
       <c r="J202" s="13" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="K202" s="13" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="L202" s="13"/>
-      <c r="M202" s="26"/>
-      <c r="N202" s="21"/>
-      <c r="O202" s="21"/>
-      <c r="P202" s="21"/>
-      <c r="Q202" s="21"/>
-      <c r="R202" s="21"/>
-      <c r="S202" s="21"/>
-      <c r="T202" s="21"/>
-      <c r="U202" s="21"/>
-      <c r="V202" s="21"/>
-      <c r="W202" s="21"/>
-      <c r="X202" s="21"/>
-      <c r="Y202" s="21"/>
-      <c r="Z202" s="21"/>
-      <c r="AA202" s="21"/>
+      <c r="M202" s="24"/>
+      <c r="N202" s="20"/>
+      <c r="O202" s="20"/>
+      <c r="P202" s="20"/>
+      <c r="Q202" s="20"/>
+      <c r="R202" s="20"/>
+      <c r="S202" s="20"/>
+      <c r="T202" s="20"/>
+      <c r="U202" s="20"/>
+      <c r="V202" s="20"/>
+      <c r="W202" s="20"/>
+      <c r="X202" s="20"/>
+      <c r="Y202" s="20"/>
+      <c r="Z202" s="20"/>
+      <c r="AA202" s="20"/>
     </row>
     <row r="203" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A203" s="20"/>
+      <c r="A203" s="19"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="20"/>
-      <c r="J203" s="20"/>
-      <c r="K203" s="20"/>
-      <c r="L203" s="20"/>
-      <c r="M203" s="25"/>
-      <c r="N203" s="20"/>
-      <c r="O203" s="20"/>
-      <c r="P203" s="20"/>
-      <c r="Q203" s="20"/>
-      <c r="R203" s="20"/>
-      <c r="S203" s="20"/>
-      <c r="T203" s="21"/>
-      <c r="U203" s="21"/>
-      <c r="V203" s="21"/>
-      <c r="W203" s="21"/>
-      <c r="X203" s="21"/>
-      <c r="Y203" s="21"/>
-      <c r="Z203" s="21"/>
-      <c r="AA203" s="21"/>
+        <v>649</v>
+      </c>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="19"/>
+      <c r="K203" s="19"/>
+      <c r="L203" s="19"/>
+      <c r="M203" s="23"/>
+      <c r="N203" s="19"/>
+      <c r="O203" s="19"/>
+      <c r="P203" s="19"/>
+      <c r="Q203" s="19"/>
+      <c r="R203" s="19"/>
+      <c r="S203" s="19"/>
+      <c r="T203" s="20"/>
+      <c r="U203" s="20"/>
+      <c r="V203" s="20"/>
+      <c r="W203" s="20"/>
+      <c r="X203" s="20"/>
+      <c r="Y203" s="20"/>
+      <c r="Z203" s="20"/>
+      <c r="AA203" s="20"/>
     </row>
     <row r="204" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A204" s="21"/>
-      <c r="B204" s="21"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="21"/>
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
       <c r="E204" s="13" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="F204" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="G204" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="G204" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H204" s="16" t="s">
@@ -9798,120 +9843,120 @@
       </c>
       <c r="I204" s="13"/>
       <c r="J204" s="13" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="K204" s="13" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="L204" s="13"/>
-      <c r="M204" s="26"/>
-      <c r="N204" s="21"/>
-      <c r="O204" s="21"/>
-      <c r="P204" s="21"/>
-      <c r="Q204" s="21"/>
-      <c r="R204" s="21"/>
-      <c r="S204" s="21"/>
-      <c r="T204" s="21"/>
-      <c r="U204" s="21"/>
-      <c r="V204" s="21"/>
-      <c r="W204" s="21"/>
-      <c r="X204" s="21"/>
-      <c r="Y204" s="21"/>
-      <c r="Z204" s="21"/>
-      <c r="AA204" s="21"/>
+      <c r="M204" s="24"/>
+      <c r="N204" s="20"/>
+      <c r="O204" s="20"/>
+      <c r="P204" s="20"/>
+      <c r="Q204" s="20"/>
+      <c r="R204" s="20"/>
+      <c r="S204" s="20"/>
+      <c r="T204" s="20"/>
+      <c r="U204" s="20"/>
+      <c r="V204" s="20"/>
+      <c r="W204" s="20"/>
+      <c r="X204" s="20"/>
+      <c r="Y204" s="20"/>
+      <c r="Z204" s="20"/>
+      <c r="AA204" s="20"/>
     </row>
     <row r="205" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A205" s="21"/>
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21"/>
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
       <c r="E205" s="13" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F205" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="G205" s="22" t="s">
-        <v>32</v>
+        <v>652</v>
+      </c>
+      <c r="G205" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H205" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I205" s="13"/>
       <c r="J205" s="13" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="K205" s="13" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="L205" s="13"/>
-      <c r="M205" s="26"/>
-      <c r="N205" s="21"/>
-      <c r="O205" s="21"/>
-      <c r="P205" s="21"/>
-      <c r="Q205" s="21"/>
-      <c r="R205" s="21"/>
-      <c r="S205" s="21"/>
-      <c r="T205" s="21"/>
-      <c r="U205" s="21"/>
-      <c r="V205" s="21"/>
-      <c r="W205" s="21"/>
-      <c r="X205" s="21"/>
-      <c r="Y205" s="21"/>
-      <c r="Z205" s="21"/>
-      <c r="AA205" s="21"/>
+      <c r="M205" s="24"/>
+      <c r="N205" s="20"/>
+      <c r="O205" s="20"/>
+      <c r="P205" s="20"/>
+      <c r="Q205" s="20"/>
+      <c r="R205" s="20"/>
+      <c r="S205" s="20"/>
+      <c r="T205" s="20"/>
+      <c r="U205" s="20"/>
+      <c r="V205" s="20"/>
+      <c r="W205" s="20"/>
+      <c r="X205" s="20"/>
+      <c r="Y205" s="20"/>
+      <c r="Z205" s="20"/>
+      <c r="AA205" s="20"/>
     </row>
     <row r="206" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A206" s="21"/>
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21"/>
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
       <c r="E206" s="13" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="F206" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="G206" s="22" t="s">
-        <v>32</v>
+        <v>654</v>
+      </c>
+      <c r="G206" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H206" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I206" s="13"/>
       <c r="J206" s="13" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="K206" s="13" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="L206" s="13"/>
-      <c r="M206" s="26"/>
-      <c r="N206" s="21"/>
-      <c r="O206" s="21"/>
-      <c r="P206" s="21"/>
-      <c r="Q206" s="21"/>
-      <c r="R206" s="21"/>
-      <c r="S206" s="21"/>
-      <c r="T206" s="21"/>
-      <c r="U206" s="21"/>
-      <c r="V206" s="21"/>
-      <c r="W206" s="21"/>
-      <c r="X206" s="21"/>
-      <c r="Y206" s="21"/>
-      <c r="Z206" s="21"/>
-      <c r="AA206" s="21"/>
+      <c r="M206" s="24"/>
+      <c r="N206" s="20"/>
+      <c r="O206" s="20"/>
+      <c r="P206" s="20"/>
+      <c r="Q206" s="20"/>
+      <c r="R206" s="20"/>
+      <c r="S206" s="20"/>
+      <c r="T206" s="20"/>
+      <c r="U206" s="20"/>
+      <c r="V206" s="20"/>
+      <c r="W206" s="20"/>
+      <c r="X206" s="20"/>
+      <c r="Y206" s="20"/>
+      <c r="Z206" s="20"/>
+      <c r="AA206" s="20"/>
     </row>
     <row r="207" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A207" s="12"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
@@ -9930,52 +9975,54 @@
       <c r="C208" s="4"/>
       <c r="D208" s="5"/>
       <c r="E208" s="4" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="F208" s="16" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="G208" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="M208" s="4"/>
+        <v>660</v>
+      </c>
+      <c r="M208" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="209" s="1" customFormat="1" customHeight="1" spans="2:13">
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="5"/>
       <c r="E209" s="4" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F209" s="16" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="G209" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="M209" s="4"/>
     </row>
@@ -9984,25 +10031,25 @@
       <c r="C210" s="4"/>
       <c r="D210" s="5"/>
       <c r="E210" s="4" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F210" s="16" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="G210" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="M210" s="4"/>
     </row>
@@ -10011,25 +10058,25 @@
       <c r="C211" s="4"/>
       <c r="D211" s="5"/>
       <c r="E211" s="4" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F211" s="16" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="G211" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="M211" s="4"/>
     </row>
@@ -10038,25 +10085,25 @@
       <c r="C212" s="4"/>
       <c r="D212" s="5"/>
       <c r="E212" s="4" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F212" s="16" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G212" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="M212" s="4"/>
     </row>
@@ -10065,27 +10112,27 @@
       <c r="C213" s="4"/>
       <c r="D213" s="5"/>
       <c r="E213" s="4" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="F213" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="G213" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="G213" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H213" s="33" t="s">
-        <v>673</v>
-      </c>
-      <c r="I213" s="33" t="s">
-        <v>674</v>
-      </c>
-      <c r="J213" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="K213" s="33" t="s">
-        <v>675</v>
-      </c>
-      <c r="L213" s="33"/>
+      <c r="H213" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="I213" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="J213" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="K213" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="L213" s="31"/>
       <c r="M213" s="4"/>
     </row>
   </sheetData>
